--- a/biology/Botanique/Rosier_des_Alpes/Rosier_des_Alpes.xlsx
+++ b/biology/Botanique/Rosier_des_Alpes/Rosier_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa pendulina
 Le rosier des Alpes (Rosa pendulina L.), également appelé « églantier à fruits pendants », « églantier des Alpes » ou  « rosier sans épines », est une espèce de plantes à fleurs de la famille des Rosaceae et du genre Rosa. C'est un rosier classé dans la section des Cinnamomeae. C'est un arbrisseau originaire d'Europe centrale et méridionale.
@@ -517,11 +529,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ce rosier se reconnaît normalement à sa quasi-absence d’épines et à ses fruits pendants.
 Forme : tige de 50 cm à 2 m de haut.
-Aiguillons : généralement aucun au-dessus de la base de la tige, parfois quelques-uns sont sétacés et alternes sous les fleurs[1].
+Aiguillons : généralement aucun au-dessus de la base de la tige, parfois quelques-uns sont sétacés et alternes sous les fleurs.
 Feuilles : composées de nombreuses folioles ovales (7 à 11) à bords dentés.
 Fleurs : grandes, solitaires sur des pédoncules plus ou moins velus qui se recourbent à la fin de la floraison. Les fleurs ont 5 pétales de couleur variant du rouge carmin au rose pourpre.
 Floraison : de juin à août.
@@ -554,14 +568,16 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa pendulina 'Pyrenaica', aux fleurs rose foncé, aux fruits très rouges, qui drageonne beaucoup ; utilisée pour les rocailles,
 Rosa pendulina 'Inernis',
 Rosa pendulina, à fleurs doubles,
 Rosa pendulina var.oxyodon ou Rosa oxyodon Boiss., trouvée au Caucase et introduite en Europe en 1904,
 Rosa pendulina f. hæmatodes Crep. ou Rosa oxyodon f. hæmatodes Crep., introduite en 1864 du Caucase,
-Rosa ×spinulifolia Dematra (Rosa pendulina × Rosa tomentosa)[2].</t>
+Rosa ×spinulifolia Dematra (Rosa pendulina × Rosa tomentosa).</t>
         </is>
       </c>
     </row>
